--- a/day35_euroFootballoutcome/Prediction_template.xlsx
+++ b/day35_euroFootballoutcome/Prediction_template.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Downloads\work\100 days of python\day35_euroFootballoutcome\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE4D21FB-585E-42F5-9CCD-4DE15C1559D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A61918A-9C45-4DC6-88C1-86D1F24060E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{15873638-03C4-4BAF-B942-88C3A8EBFF76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{15873638-03C4-4BAF-B942-88C3A8EBFF76}"/>
   </bookViews>
   <sheets>
     <sheet name="Match predictions" sheetId="1" r:id="rId1"/>
     <sheet name="Top Goal Scorer" sheetId="2" r:id="rId2"/>
-    <sheet name="about" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="52">
   <si>
     <t>Match Number</t>
   </si>
@@ -137,50 +136,69 @@
     <t>Player Jersey Number</t>
   </si>
   <si>
-    <t>Match predictions</t>
-  </si>
-  <si>
-    <t>for  predicted results</t>
-  </si>
-  <si>
-    <t>1 means home team wins</t>
-  </si>
-  <si>
-    <t>2 mwans home team loses</t>
-  </si>
-  <si>
-    <t>0 means draw</t>
-  </si>
-  <si>
-    <t>for predicted goal difference provide the numerical value of the winning team and the loosing team after the match ends</t>
-  </si>
-  <si>
-    <t>if the match ends in a draw, the predicted goal difference is 0</t>
-  </si>
-  <si>
-    <t>Top goal scorer</t>
-  </si>
-  <si>
-    <t>You need to predict top goal score in phase 1</t>
-  </si>
-  <si>
-    <t>The jersey number of a player corresponds to the number on his jersey during the match</t>
+    <t>2-0</t>
+  </si>
+  <si>
+    <t>1-1</t>
+  </si>
+  <si>
+    <t>1-0</t>
+  </si>
+  <si>
+    <t>0-1</t>
+  </si>
+  <si>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>1-2</t>
+  </si>
+  <si>
+    <t>2-1</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>Romelu Lukaku</t>
+  </si>
+  <si>
+    <t>Gonçalo Ramos</t>
+  </si>
+  <si>
+    <t>Zeki Amdouni</t>
+  </si>
+  <si>
+    <t>Olivier Giroud</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo (captain)</t>
+  </si>
+  <si>
+    <t>Memphis Depay</t>
+  </si>
+  <si>
+    <t>Harry Kane (captain)</t>
+  </si>
+  <si>
+    <t>Niclas Füllkrug</t>
+  </si>
+  <si>
+    <t>Kylian Mbappé (captain)</t>
+  </si>
+  <si>
+    <t>Warren Zaïre-Emery</t>
+  </si>
+  <si>
+    <t>Goals</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -211,7 +229,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,8 +546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19C33363-F467-4064-808C-E582FBEF4A31}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -537,7 +555,7 @@
     <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -554,7 +572,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -574,6 +592,12 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -588,6 +612,12 @@
       </c>
       <c r="D3" t="s">
         <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -604,6 +634,12 @@
       <c r="D4" t="s">
         <v>11</v>
       </c>
+      <c r="E4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -619,6 +655,12 @@
       <c r="D5" t="s">
         <v>13</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -634,6 +676,12 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -649,6 +697,12 @@
       <c r="D7" t="s">
         <v>17</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -664,6 +718,12 @@
       <c r="D8" t="s">
         <v>19</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -679,6 +739,12 @@
       <c r="D9" t="s">
         <v>21</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -694,6 +760,12 @@
       <c r="D10" t="s">
         <v>23</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -709,6 +781,12 @@
       <c r="D11" t="s">
         <v>25</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -724,6 +802,12 @@
       <c r="D12" t="s">
         <v>27</v>
       </c>
+      <c r="E12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -739,6 +823,12 @@
       <c r="D13" t="s">
         <v>29</v>
       </c>
+      <c r="E13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -754,6 +844,12 @@
       <c r="D14" t="s">
         <v>13</v>
       </c>
+      <c r="E14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -769,6 +865,12 @@
       <c r="D15" t="s">
         <v>7</v>
       </c>
+      <c r="E15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -784,8 +886,14 @@
       <c r="D16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -799,8 +907,14 @@
       <c r="D17" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -814,8 +928,14 @@
       <c r="D18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -829,8 +949,14 @@
       <c r="D19" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -844,8 +970,14 @@
       <c r="D20" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -859,8 +991,14 @@
       <c r="D21" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -874,8 +1012,14 @@
       <c r="D22" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -889,8 +1033,14 @@
       <c r="D23" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -904,8 +1054,14 @@
       <c r="D24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -919,8 +1075,14 @@
       <c r="D25" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -934,8 +1096,14 @@
       <c r="D26" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -949,8 +1117,14 @@
       <c r="D27" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -964,8 +1138,14 @@
       <c r="D28" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -979,8 +1159,14 @@
       <c r="D29" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -994,8 +1180,14 @@
       <c r="D30" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1009,8 +1201,14 @@
       <c r="D31" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1024,8 +1222,14 @@
       <c r="D32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1039,8 +1243,14 @@
       <c r="D33" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1054,8 +1264,14 @@
       <c r="D34" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1069,8 +1285,14 @@
       <c r="D35" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1084,8 +1306,14 @@
       <c r="D36" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1098,6 +1326,12 @@
       </c>
       <c r="D37" t="s">
         <v>26</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1107,15 +1341,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BE0098-F832-46DA-A3F2-8F6B9C62F557}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>30</v>
       </c>
@@ -1124,75 +1363,152 @@
       </c>
       <c r="C1" t="s">
         <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C781C2-AB7E-4DFA-82A2-D0C1FB642AAB}">
-  <dimension ref="A2:A16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>